--- a/backend/multi_agents/rag/roster.xlsx
+++ b/backend/multi_agents/rag/roster.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Skylar White</t>
+          <t>Jordan Martinez</t>
         </is>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Quinn Jackson</t>
+          <t>Parker Moore</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Reese Miller</t>
+          <t>Skylar Thomas</t>
         </is>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Jordan Lee</t>
+          <t>Riley Miller</t>
         </is>
       </c>
     </row>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -13539,7 +13539,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -13651,7 +13651,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Emery Wilson</t>
+          <t>Reese Williams</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Harper Smith</t>
+          <t>Alex Smith</t>
         </is>
       </c>
     </row>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Logan Williams</t>
+          <t>Parker Smith</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13987,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Quinn Young</t>
+          <t>Blake Jackson</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Casey Davis</t>
+          <t>Jordan Williams</t>
         </is>
       </c>
     </row>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Reese Brown</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Cameron White</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Quinn Brown</t>
+          <t>Dakota Harris</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Parker Thompson</t>
+          <t>Finley Moore</t>
         </is>
       </c>
     </row>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Emery Johnson</t>
+          <t>Finley Young</t>
         </is>
       </c>
     </row>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Jamie Brown</t>
+          <t>Harper Jones</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14939,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Cameron Robinson</t>
+          <t>Skylar Jones</t>
         </is>
       </c>
     </row>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Harper Brown</t>
+          <t>River White</t>
         </is>
       </c>
     </row>
@@ -15051,7 +15051,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Harper White</t>
+          <t>Harper Smith</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Dakota Williams</t>
+          <t>Avery Jones</t>
         </is>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Reese Robinson</t>
+          <t>Harper Walker</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Kai Anderson</t>
+          <t>Taylor Jones</t>
         </is>
       </c>
     </row>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Emery Anderson</t>
+          <t>Alex Martinez</t>
         </is>
       </c>
     </row>
